--- a/data/pca/factorExposure/factorExposure_2015-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01592888866897507</v>
+        <v>-0.01618041496414417</v>
       </c>
       <c r="C2">
-        <v>0.03061384621938004</v>
+        <v>0.03337124551860744</v>
       </c>
       <c r="D2">
-        <v>-0.09140639151294443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1217651351947966</v>
+      </c>
+      <c r="E2">
+        <v>0.0672039219923382</v>
+      </c>
+      <c r="F2">
+        <v>0.02272333993299876</v>
+      </c>
+      <c r="G2">
+        <v>-0.06969364375901209</v>
+      </c>
+      <c r="H2">
+        <v>-0.09174027078213989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01744526799270294</v>
+        <v>-0.01058028600303444</v>
       </c>
       <c r="C3">
-        <v>0.05251990088339652</v>
+        <v>0.03571153285114019</v>
       </c>
       <c r="D3">
-        <v>-0.1230958400270038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07324376083057398</v>
+      </c>
+      <c r="E3">
+        <v>0.04554900013889423</v>
+      </c>
+      <c r="F3">
+        <v>0.03818911523838369</v>
+      </c>
+      <c r="G3">
+        <v>-0.09401520956110432</v>
+      </c>
+      <c r="H3">
+        <v>-0.01515838074479029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04953140295014946</v>
+        <v>-0.05414271287117599</v>
       </c>
       <c r="C4">
-        <v>0.04151665171487456</v>
+        <v>0.06467078662862566</v>
       </c>
       <c r="D4">
-        <v>-0.1272280467181495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1437362872092653</v>
+      </c>
+      <c r="E4">
+        <v>0.05538694849424678</v>
+      </c>
+      <c r="F4">
+        <v>0.01419496981887359</v>
+      </c>
+      <c r="G4">
+        <v>0.03608968137741312</v>
+      </c>
+      <c r="H4">
+        <v>0.0268898346086653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04308014151176927</v>
+        <v>-0.03955368337138253</v>
       </c>
       <c r="C6">
-        <v>0.008006291511209145</v>
+        <v>0.02602377792048374</v>
       </c>
       <c r="D6">
-        <v>-0.135464803518408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1327740630701</v>
+      </c>
+      <c r="E6">
+        <v>0.03110534381877626</v>
+      </c>
+      <c r="F6">
+        <v>0.01252834748188525</v>
+      </c>
+      <c r="G6">
+        <v>-0.01087636408094851</v>
+      </c>
+      <c r="H6">
+        <v>-0.01369188783253763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02003091751049333</v>
+        <v>-0.01507699916432627</v>
       </c>
       <c r="C7">
-        <v>0.01538459049541779</v>
+        <v>0.02967303195236106</v>
       </c>
       <c r="D7">
-        <v>-0.0948073797652267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09259764713943699</v>
+      </c>
+      <c r="E7">
+        <v>0.03095122143623134</v>
+      </c>
+      <c r="F7">
+        <v>0.0163874152542163</v>
+      </c>
+      <c r="G7">
+        <v>0.002755141497189899</v>
+      </c>
+      <c r="H7">
+        <v>-0.1095975604018301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008811255679685237</v>
+        <v>-0.00602718095194432</v>
       </c>
       <c r="C8">
-        <v>0.02898206535808642</v>
+        <v>0.03710275448134734</v>
       </c>
       <c r="D8">
-        <v>-0.05417957639944867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07297115125744942</v>
+      </c>
+      <c r="E8">
+        <v>0.03748483241389916</v>
+      </c>
+      <c r="F8">
+        <v>0.03947515642126378</v>
+      </c>
+      <c r="G8">
+        <v>-0.01332922872459068</v>
+      </c>
+      <c r="H8">
+        <v>-0.04625510409890573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04135307563972238</v>
+        <v>-0.04252827275270315</v>
       </c>
       <c r="C9">
-        <v>0.04012687320082178</v>
+        <v>0.0594625061551682</v>
       </c>
       <c r="D9">
-        <v>-0.1124682707622087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1220275966672292</v>
+      </c>
+      <c r="E9">
+        <v>0.03802662489222584</v>
+      </c>
+      <c r="F9">
+        <v>-0.0009487525456945994</v>
+      </c>
+      <c r="G9">
+        <v>0.02637257271821047</v>
+      </c>
+      <c r="H9">
+        <v>-0.006434722823513843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09805011669753726</v>
+        <v>-0.1369918035575417</v>
       </c>
       <c r="C10">
-        <v>-0.1937037986034232</v>
+        <v>-0.1883658224340921</v>
       </c>
       <c r="D10">
-        <v>-0.001475699552139738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0007166532266832585</v>
+      </c>
+      <c r="E10">
+        <v>0.04460500147371295</v>
+      </c>
+      <c r="F10">
+        <v>0.02011395457044189</v>
+      </c>
+      <c r="G10">
+        <v>0.03661562380320428</v>
+      </c>
+      <c r="H10">
+        <v>-0.001187906037568172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03369233785107625</v>
+        <v>-0.02832140453118694</v>
       </c>
       <c r="C11">
-        <v>0.0397916954686022</v>
+        <v>0.04369998670525804</v>
       </c>
       <c r="D11">
-        <v>-0.05887246212528751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05756496139911413</v>
+      </c>
+      <c r="E11">
+        <v>-0.004289937006930019</v>
+      </c>
+      <c r="F11">
+        <v>0.001110385925734517</v>
+      </c>
+      <c r="G11">
+        <v>-0.0009299885656446999</v>
+      </c>
+      <c r="H11">
+        <v>-0.04775493137042498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0392929272458506</v>
+        <v>-0.03401557768442707</v>
       </c>
       <c r="C12">
-        <v>0.04195638917776418</v>
+        <v>0.04593046051637524</v>
       </c>
       <c r="D12">
-        <v>-0.06238969180764473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05764413609784019</v>
+      </c>
+      <c r="E12">
+        <v>0.004121859406911668</v>
+      </c>
+      <c r="F12">
+        <v>-0.00711539899320977</v>
+      </c>
+      <c r="G12">
+        <v>-0.001024227115893646</v>
+      </c>
+      <c r="H12">
+        <v>-0.06027432433323562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01850037920822006</v>
+        <v>-0.01853980242630096</v>
       </c>
       <c r="C13">
-        <v>0.02719147411903335</v>
+        <v>0.03772387057953359</v>
       </c>
       <c r="D13">
-        <v>-0.1282177240975386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1464680168565338</v>
+      </c>
+      <c r="E13">
+        <v>0.05000134832789015</v>
+      </c>
+      <c r="F13">
+        <v>0.0318731182257693</v>
+      </c>
+      <c r="G13">
+        <v>-0.008821110969304406</v>
+      </c>
+      <c r="H13">
+        <v>-0.09959790143881041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009359794886547116</v>
+        <v>-0.006984431045471982</v>
       </c>
       <c r="C14">
-        <v>0.02013457067397273</v>
+        <v>0.02446373379511988</v>
       </c>
       <c r="D14">
-        <v>-0.07884137365173943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08422469848014964</v>
+      </c>
+      <c r="E14">
+        <v>0.0362914408064832</v>
+      </c>
+      <c r="F14">
+        <v>-0.01036347754153224</v>
+      </c>
+      <c r="G14">
+        <v>-0.01143885462390075</v>
+      </c>
+      <c r="H14">
+        <v>-0.1021767446725464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0001388774215718707</v>
+        <v>-0.001328024335457234</v>
       </c>
       <c r="C15">
-        <v>3.729810501481934e-05</v>
+        <v>0.009827836601029316</v>
       </c>
       <c r="D15">
-        <v>-0.0004088312153134065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03070765210369398</v>
+      </c>
+      <c r="E15">
+        <v>0.006237011080249352</v>
+      </c>
+      <c r="F15">
+        <v>-0.001599887206540998</v>
+      </c>
+      <c r="G15">
+        <v>-0.009886780544917715</v>
+      </c>
+      <c r="H15">
+        <v>-0.009390034391625767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03368763119151965</v>
+        <v>-0.02905681185830193</v>
       </c>
       <c r="C16">
-        <v>0.04039218977791458</v>
+        <v>0.04315234852580151</v>
       </c>
       <c r="D16">
-        <v>-0.06767021031422285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06082443533820973</v>
+      </c>
+      <c r="E16">
+        <v>0.008396698677731216</v>
+      </c>
+      <c r="F16">
+        <v>-0.006761665473864944</v>
+      </c>
+      <c r="G16">
+        <v>-0.002915412514763593</v>
+      </c>
+      <c r="H16">
+        <v>-0.05899159190254201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01110879156031457</v>
+        <v>-0.006729514405412796</v>
       </c>
       <c r="C19">
-        <v>0.02373705519381088</v>
+        <v>0.02020424874097724</v>
       </c>
       <c r="D19">
-        <v>-0.163905521278843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1251312860432094</v>
+      </c>
+      <c r="E19">
+        <v>0.06552632277729013</v>
+      </c>
+      <c r="F19">
+        <v>-0.01004200075685615</v>
+      </c>
+      <c r="G19">
+        <v>-0.01970205672766348</v>
+      </c>
+      <c r="H19">
+        <v>-0.06704580040979288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02058041266422428</v>
+        <v>-0.01643926033215897</v>
       </c>
       <c r="C20">
-        <v>0.02352163176643499</v>
+        <v>0.03244049900802645</v>
       </c>
       <c r="D20">
-        <v>-0.08831605940322802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09897420852916904</v>
+      </c>
+      <c r="E20">
+        <v>0.05162589450353593</v>
+      </c>
+      <c r="F20">
+        <v>-0.005221513969515088</v>
+      </c>
+      <c r="G20">
+        <v>-0.00197027507347078</v>
+      </c>
+      <c r="H20">
+        <v>-0.05747096821269267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01310928436927482</v>
+        <v>-0.01393917004264351</v>
       </c>
       <c r="C21">
-        <v>0.02885766080433226</v>
+        <v>0.03648243279084189</v>
       </c>
       <c r="D21">
-        <v>-0.1285941639680905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1392846741321725</v>
+      </c>
+      <c r="E21">
+        <v>0.08993809155537844</v>
+      </c>
+      <c r="F21">
+        <v>-0.002328323000596475</v>
+      </c>
+      <c r="G21">
+        <v>0.02562502778628673</v>
+      </c>
+      <c r="H21">
+        <v>-0.1197357856253566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.006594958881921736</v>
+        <v>-0.005756968766559228</v>
       </c>
       <c r="C22">
-        <v>0.02842888365227851</v>
+        <v>0.04066259263838457</v>
       </c>
       <c r="D22">
-        <v>-0.08543143504026671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1418976662534856</v>
+      </c>
+      <c r="E22">
+        <v>0.02899657590191647</v>
+      </c>
+      <c r="F22">
+        <v>0.08463535208576096</v>
+      </c>
+      <c r="G22">
+        <v>-0.07030730445521803</v>
+      </c>
+      <c r="H22">
+        <v>0.05690704215686796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.006663919133734118</v>
+        <v>-0.00586084440956904</v>
       </c>
       <c r="C23">
-        <v>0.02832145439795625</v>
+        <v>0.04112574025842194</v>
       </c>
       <c r="D23">
-        <v>-0.08477313031439816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1413570857413498</v>
+      </c>
+      <c r="E23">
+        <v>0.0292719115702871</v>
+      </c>
+      <c r="F23">
+        <v>0.08460635306521622</v>
+      </c>
+      <c r="G23">
+        <v>-0.06934893946746576</v>
+      </c>
+      <c r="H23">
+        <v>0.0570639006197978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03433522566989156</v>
+        <v>-0.03066739476906028</v>
       </c>
       <c r="C24">
-        <v>0.0462473263111773</v>
+        <v>0.05498136109658719</v>
       </c>
       <c r="D24">
-        <v>-0.06816413387423276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06600549407076231</v>
+      </c>
+      <c r="E24">
+        <v>0.01351252201410561</v>
+      </c>
+      <c r="F24">
+        <v>-0.005391778423544666</v>
+      </c>
+      <c r="G24">
+        <v>0.006928105312091447</v>
+      </c>
+      <c r="H24">
+        <v>-0.07091686308272979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04049219381011605</v>
+        <v>-0.03574561293408746</v>
       </c>
       <c r="C25">
-        <v>0.0482508216758411</v>
+        <v>0.05288970437127887</v>
       </c>
       <c r="D25">
-        <v>-0.06695994563079373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06234408594329954</v>
+      </c>
+      <c r="E25">
+        <v>0.01331608307924963</v>
+      </c>
+      <c r="F25">
+        <v>-0.0001594300946898142</v>
+      </c>
+      <c r="G25">
+        <v>0.007376522864892565</v>
+      </c>
+      <c r="H25">
+        <v>-0.05540281301901989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02106756663206091</v>
+        <v>-0.0184257607804268</v>
       </c>
       <c r="C26">
-        <v>0.00802004067174872</v>
+        <v>0.01770468280163785</v>
       </c>
       <c r="D26">
-        <v>-0.05088933994053863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06241855004310635</v>
+      </c>
+      <c r="E26">
+        <v>0.02651078318837513</v>
+      </c>
+      <c r="F26">
+        <v>0.001632164498273066</v>
+      </c>
+      <c r="G26">
+        <v>-0.007641562341175681</v>
+      </c>
+      <c r="H26">
+        <v>-0.06183967310157136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1454280586940216</v>
+        <v>-0.1948421999942618</v>
       </c>
       <c r="C28">
-        <v>-0.2743614961662948</v>
+        <v>-0.2548757479215123</v>
       </c>
       <c r="D28">
-        <v>0.03235425242841374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01183545869577159</v>
+      </c>
+      <c r="E28">
+        <v>0.07147466295600037</v>
+      </c>
+      <c r="F28">
+        <v>0.001354429522198277</v>
+      </c>
+      <c r="G28">
+        <v>0.06841506379600917</v>
+      </c>
+      <c r="H28">
+        <v>-0.0177326810053754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005386974624660961</v>
+        <v>-0.006002841789774609</v>
       </c>
       <c r="C29">
-        <v>0.01941254722728489</v>
+        <v>0.02280062745058874</v>
       </c>
       <c r="D29">
-        <v>-0.06487336387180721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07981188828233081</v>
+      </c>
+      <c r="E29">
+        <v>0.03341199836576147</v>
+      </c>
+      <c r="F29">
+        <v>0.004808472057461131</v>
+      </c>
+      <c r="G29">
+        <v>0.006867143772155307</v>
+      </c>
+      <c r="H29">
+        <v>-0.1064309812421878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03884562516806851</v>
+        <v>-0.04202097453738345</v>
       </c>
       <c r="C30">
-        <v>0.03807390581683658</v>
+        <v>0.05889506294229435</v>
       </c>
       <c r="D30">
-        <v>-0.1684797725620389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1787005062141317</v>
+      </c>
+      <c r="E30">
+        <v>0.01963916039685534</v>
+      </c>
+      <c r="F30">
+        <v>0.005144154996910123</v>
+      </c>
+      <c r="G30">
+        <v>-0.02800025196080953</v>
+      </c>
+      <c r="H30">
+        <v>-0.002374581096069083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06685206754737906</v>
+        <v>-0.0557689235345693</v>
       </c>
       <c r="C31">
-        <v>0.04949424990342106</v>
+        <v>0.07056659371638691</v>
       </c>
       <c r="D31">
-        <v>-0.06837101862390353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05779144100072398</v>
+      </c>
+      <c r="E31">
+        <v>0.03323429809695689</v>
+      </c>
+      <c r="F31">
+        <v>0.0334855076786642</v>
+      </c>
+      <c r="G31">
+        <v>0.02101321000788285</v>
+      </c>
+      <c r="H31">
+        <v>-0.04622968546890284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.006372000601080286</v>
+        <v>-0.01241409224024725</v>
       </c>
       <c r="C32">
-        <v>0.00954568236414589</v>
+        <v>0.01804074542355086</v>
       </c>
       <c r="D32">
-        <v>-0.06277890387030083</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09982900262021907</v>
+      </c>
+      <c r="E32">
+        <v>0.09093233318486689</v>
+      </c>
+      <c r="F32">
+        <v>0.01377246088582208</v>
+      </c>
+      <c r="G32">
+        <v>0.02562255030433572</v>
+      </c>
+      <c r="H32">
+        <v>-0.09333170002582181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.025841687147789</v>
+        <v>-0.02413738725631968</v>
       </c>
       <c r="C33">
-        <v>0.02325115255048877</v>
+        <v>0.04183583706947278</v>
       </c>
       <c r="D33">
-        <v>-0.133448510673607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1322593847201185</v>
+      </c>
+      <c r="E33">
+        <v>0.04378649306754172</v>
+      </c>
+      <c r="F33">
+        <v>0.01451947649892101</v>
+      </c>
+      <c r="G33">
+        <v>-0.003447248196959422</v>
+      </c>
+      <c r="H33">
+        <v>-0.06589496825678745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03404949001094247</v>
+        <v>-0.02695425075689009</v>
       </c>
       <c r="C34">
-        <v>0.0604534362138587</v>
+        <v>0.0600508593562056</v>
       </c>
       <c r="D34">
-        <v>-0.06976295708551669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05586684000595562</v>
+      </c>
+      <c r="E34">
+        <v>-0.003649325084630858</v>
+      </c>
+      <c r="F34">
+        <v>-0.01113251554376219</v>
+      </c>
+      <c r="G34">
+        <v>-0.0008083014468198245</v>
+      </c>
+      <c r="H34">
+        <v>-0.07668533180930233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0005566890137892667</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0007380568510954407</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.004175843504014943</v>
+      </c>
+      <c r="E35">
+        <v>0.0002233873101597591</v>
+      </c>
+      <c r="F35">
+        <v>4.608734738180103e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001840824495815511</v>
+      </c>
+      <c r="H35">
+        <v>-0.00213868566073299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02028522845174961</v>
+        <v>-0.01848133244017924</v>
       </c>
       <c r="C36">
-        <v>0.002369413674954533</v>
+        <v>0.01441214327412006</v>
       </c>
       <c r="D36">
-        <v>-0.07228679676107007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07762054471886148</v>
+      </c>
+      <c r="E36">
+        <v>0.035120836480245</v>
+      </c>
+      <c r="F36">
+        <v>-0.003606518750793165</v>
+      </c>
+      <c r="G36">
+        <v>0.008076435025998309</v>
+      </c>
+      <c r="H36">
+        <v>-0.05469147510388018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02615483520860678</v>
+        <v>-0.02106022800801056</v>
       </c>
       <c r="C38">
-        <v>0.01727942361679497</v>
+        <v>0.02225521764460707</v>
       </c>
       <c r="D38">
-        <v>-0.04985202182293577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05653255051820814</v>
+      </c>
+      <c r="E38">
+        <v>0.03693602988562502</v>
+      </c>
+      <c r="F38">
+        <v>-0.005291991951020306</v>
+      </c>
+      <c r="G38">
+        <v>-0.03888500734530757</v>
+      </c>
+      <c r="H38">
+        <v>-0.03647690468464906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03976908018182426</v>
+        <v>-0.03629337422289855</v>
       </c>
       <c r="C39">
-        <v>0.05033286610044181</v>
+        <v>0.06352988849418564</v>
       </c>
       <c r="D39">
-        <v>-0.08982777739782818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1043736727720606</v>
+      </c>
+      <c r="E39">
+        <v>0.006048944926447808</v>
+      </c>
+      <c r="F39">
+        <v>-0.02532704558863471</v>
+      </c>
+      <c r="G39">
+        <v>-0.00543065534780172</v>
+      </c>
+      <c r="H39">
+        <v>-0.08506492393856808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01704530030603104</v>
+        <v>-0.01423524780656802</v>
       </c>
       <c r="C40">
-        <v>0.04406678603492469</v>
+        <v>0.0377034061759776</v>
       </c>
       <c r="D40">
-        <v>-0.07785976047665726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0856227700915418</v>
+      </c>
+      <c r="E40">
+        <v>0.06421135658048054</v>
+      </c>
+      <c r="F40">
+        <v>0.06317814191195416</v>
+      </c>
+      <c r="G40">
+        <v>-0.05944705483844934</v>
+      </c>
+      <c r="H40">
+        <v>-0.1619499285250952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02444933159273194</v>
+        <v>-0.02251975456403132</v>
       </c>
       <c r="C41">
-        <v>-0.008027067696059769</v>
+        <v>0.008111809011506143</v>
       </c>
       <c r="D41">
-        <v>-0.06575607655645953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05539561687958188</v>
+      </c>
+      <c r="E41">
+        <v>0.0532949523669372</v>
+      </c>
+      <c r="F41">
+        <v>0.001308197506177256</v>
+      </c>
+      <c r="G41">
+        <v>-0.01339319845106091</v>
+      </c>
+      <c r="H41">
+        <v>-0.04761445463306339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03139402061074058</v>
+        <v>-0.02405985271748231</v>
       </c>
       <c r="C43">
-        <v>0.003337696631837668</v>
+        <v>0.01828521382714651</v>
       </c>
       <c r="D43">
-        <v>-0.1056533181525102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08554777422747886</v>
+      </c>
+      <c r="E43">
+        <v>0.03551469764747561</v>
+      </c>
+      <c r="F43">
+        <v>0.004010681587884804</v>
+      </c>
+      <c r="G43">
+        <v>-0.01491312181313537</v>
+      </c>
+      <c r="H43">
+        <v>-0.06748025864632617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01295015324219525</v>
+        <v>-0.01703691107062718</v>
       </c>
       <c r="C44">
-        <v>0.03975503910857051</v>
+        <v>0.04170014216596863</v>
       </c>
       <c r="D44">
-        <v>-0.07922195672166872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09904458301956939</v>
+      </c>
+      <c r="E44">
+        <v>0.06921985306612075</v>
+      </c>
+      <c r="F44">
+        <v>0.005324132521547676</v>
+      </c>
+      <c r="G44">
+        <v>-0.002062683575067365</v>
+      </c>
+      <c r="H44">
+        <v>-0.07432913135873373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01896031036268979</v>
+        <v>-0.01574551934331206</v>
       </c>
       <c r="C46">
-        <v>0.01860137453144804</v>
+        <v>0.02767415633696326</v>
       </c>
       <c r="D46">
-        <v>-0.07588684885119965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08802142491170978</v>
+      </c>
+      <c r="E46">
+        <v>0.0403274105165509</v>
+      </c>
+      <c r="F46">
+        <v>-0.01654302553882694</v>
+      </c>
+      <c r="G46">
+        <v>0.01595291668632497</v>
+      </c>
+      <c r="H46">
+        <v>-0.1118210775034377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09595730305438072</v>
+        <v>-0.08531531931429392</v>
       </c>
       <c r="C47">
-        <v>0.06834847907255634</v>
+        <v>0.08848601603971186</v>
       </c>
       <c r="D47">
-        <v>-0.04204985996713458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03374208046243504</v>
+      </c>
+      <c r="E47">
+        <v>0.03647264408878548</v>
+      </c>
+      <c r="F47">
+        <v>0.02045078337624051</v>
+      </c>
+      <c r="G47">
+        <v>0.04371864428898452</v>
+      </c>
+      <c r="H47">
+        <v>-0.0208711354278472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0161150823872734</v>
+        <v>-0.01692682758880422</v>
       </c>
       <c r="C48">
-        <v>0.01294242641685368</v>
+        <v>0.01963384360185134</v>
       </c>
       <c r="D48">
-        <v>-0.06396723711723859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07335517476492737</v>
+      </c>
+      <c r="E48">
+        <v>0.05002154854870934</v>
+      </c>
+      <c r="F48">
+        <v>-0.005544357417657203</v>
+      </c>
+      <c r="G48">
+        <v>0.00484652059249948</v>
+      </c>
+      <c r="H48">
+        <v>-0.05884371216187866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07342844488336325</v>
+        <v>-0.05835795675277364</v>
       </c>
       <c r="C50">
-        <v>0.06231449510636979</v>
+        <v>0.06837306182645808</v>
       </c>
       <c r="D50">
-        <v>-0.06135242666802974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05592843895695743</v>
+      </c>
+      <c r="E50">
+        <v>0.04539018403484961</v>
+      </c>
+      <c r="F50">
+        <v>0.04027394739137607</v>
+      </c>
+      <c r="G50">
+        <v>-0.01577557914831179</v>
+      </c>
+      <c r="H50">
+        <v>-0.04462132722978073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01071452947754441</v>
+        <v>-0.008718911623946871</v>
       </c>
       <c r="C51">
-        <v>0.01774154239678742</v>
+        <v>0.01875729118307422</v>
       </c>
       <c r="D51">
-        <v>-0.0802279105449583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08771392333495931</v>
+      </c>
+      <c r="E51">
+        <v>0.01363494214360832</v>
+      </c>
+      <c r="F51">
+        <v>-0.002201691130202247</v>
+      </c>
+      <c r="G51">
+        <v>-0.01843583446805755</v>
+      </c>
+      <c r="H51">
+        <v>-0.07363585912712248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0818214130388636</v>
+        <v>-0.08670591431312069</v>
       </c>
       <c r="C53">
-        <v>0.09253950764262216</v>
+        <v>0.1018681087961671</v>
       </c>
       <c r="D53">
-        <v>-0.0190288823311374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01138886081510444</v>
+      </c>
+      <c r="E53">
+        <v>0.1058858923151689</v>
+      </c>
+      <c r="F53">
+        <v>0.04357532614211189</v>
+      </c>
+      <c r="G53">
+        <v>0.08996081981877858</v>
+      </c>
+      <c r="H53">
+        <v>-0.0052872926442451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03107819034746919</v>
+        <v>-0.02618453199008398</v>
       </c>
       <c r="C54">
-        <v>0.03156712365652303</v>
+        <v>0.0354428181317662</v>
       </c>
       <c r="D54">
-        <v>-0.08758468753696988</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0869020920748413</v>
+      </c>
+      <c r="E54">
+        <v>0.04243719265974536</v>
+      </c>
+      <c r="F54">
+        <v>-0.0144195172837993</v>
+      </c>
+      <c r="G54">
+        <v>-0.01920077455984337</v>
+      </c>
+      <c r="H54">
+        <v>-0.1134933548332988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08970081717841349</v>
+        <v>-0.08553732041512092</v>
       </c>
       <c r="C55">
-        <v>0.06556485504268116</v>
+        <v>0.08081255671620152</v>
       </c>
       <c r="D55">
-        <v>0.005491392668680698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009288152908866183</v>
+      </c>
+      <c r="E55">
+        <v>0.06025816241428867</v>
+      </c>
+      <c r="F55">
+        <v>0.04130201159382779</v>
+      </c>
+      <c r="G55">
+        <v>0.0447285838418461</v>
+      </c>
+      <c r="H55">
+        <v>0.008972020477410176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1379189902384734</v>
+        <v>-0.1307007370681604</v>
       </c>
       <c r="C56">
-        <v>0.1002688482208344</v>
+        <v>0.1244957078855195</v>
       </c>
       <c r="D56">
-        <v>-0.006106851736439695</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.006883744015988244</v>
+      </c>
+      <c r="E56">
+        <v>0.0634304214778562</v>
+      </c>
+      <c r="F56">
+        <v>0.03110065427337367</v>
+      </c>
+      <c r="G56">
+        <v>0.05049266057344794</v>
+      </c>
+      <c r="H56">
+        <v>0.001987652750664505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02549799721486479</v>
+        <v>-0.03058334456525673</v>
       </c>
       <c r="C58">
-        <v>-0.02921745850357217</v>
+        <v>0.01659703552491766</v>
       </c>
       <c r="D58">
-        <v>-0.3638529158498859</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3858003862312028</v>
+      </c>
+      <c r="E58">
+        <v>0.1992680052416773</v>
+      </c>
+      <c r="F58">
+        <v>0.1418993627445235</v>
+      </c>
+      <c r="G58">
+        <v>-0.2760326948603999</v>
+      </c>
+      <c r="H58">
+        <v>0.4174738124092262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1410643489866437</v>
+        <v>-0.1745069556102903</v>
       </c>
       <c r="C59">
-        <v>-0.191055767125873</v>
+        <v>-0.1712211783531328</v>
       </c>
       <c r="D59">
-        <v>-0.02682154600941401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05116710325771144</v>
+      </c>
+      <c r="E59">
+        <v>0.01832742905711821</v>
+      </c>
+      <c r="F59">
+        <v>-0.04294264860526037</v>
+      </c>
+      <c r="G59">
+        <v>0.0006650465433170399</v>
+      </c>
+      <c r="H59">
+        <v>0.02319059925038202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2496017561476815</v>
+        <v>-0.2281583264004756</v>
       </c>
       <c r="C60">
-        <v>0.06647293200690366</v>
+        <v>0.09940141651351485</v>
       </c>
       <c r="D60">
-        <v>-0.1755836153703753</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1114198331008644</v>
+      </c>
+      <c r="E60">
+        <v>-0.3681498903999846</v>
+      </c>
+      <c r="F60">
+        <v>0.02764763050730249</v>
+      </c>
+      <c r="G60">
+        <v>0.0395627103837013</v>
+      </c>
+      <c r="H60">
+        <v>0.1098132609417295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04585348148408423</v>
+        <v>-0.04085367202578052</v>
       </c>
       <c r="C61">
-        <v>0.05191784460224754</v>
+        <v>0.06050499343181228</v>
       </c>
       <c r="D61">
-        <v>-0.09726695445132613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09272249419058524</v>
+      </c>
+      <c r="E61">
+        <v>0.002968488271507492</v>
+      </c>
+      <c r="F61">
+        <v>-0.01717416557497082</v>
+      </c>
+      <c r="G61">
+        <v>0.008616023610576746</v>
+      </c>
+      <c r="H61">
+        <v>-0.07936968379866406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01616991537135313</v>
+        <v>-0.01435731969831439</v>
       </c>
       <c r="C63">
-        <v>0.0215801956636839</v>
+        <v>0.03308813980924116</v>
       </c>
       <c r="D63">
-        <v>-0.06108180825887754</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06898879166667814</v>
+      </c>
+      <c r="E63">
+        <v>0.03122599707650737</v>
+      </c>
+      <c r="F63">
+        <v>0.01668626589099302</v>
+      </c>
+      <c r="G63">
+        <v>-0.004849033456374279</v>
+      </c>
+      <c r="H63">
+        <v>-0.04901126966961076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05656313745048696</v>
+        <v>-0.05457071427219548</v>
       </c>
       <c r="C64">
-        <v>0.06415157489756979</v>
+        <v>0.08037905897835504</v>
       </c>
       <c r="D64">
-        <v>-0.05762223254922332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05361260098687843</v>
+      </c>
+      <c r="E64">
+        <v>0.02633018309806988</v>
+      </c>
+      <c r="F64">
+        <v>-0.01538852206366413</v>
+      </c>
+      <c r="G64">
+        <v>0.05431262121922857</v>
+      </c>
+      <c r="H64">
+        <v>-0.05884413606875822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05457398896293746</v>
+        <v>-0.04815683811293057</v>
       </c>
       <c r="C65">
-        <v>0.004819402607115358</v>
+        <v>0.02479622533946996</v>
       </c>
       <c r="D65">
-        <v>-0.1098561174330796</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1144977004903954</v>
+      </c>
+      <c r="E65">
+        <v>0.002809157745269107</v>
+      </c>
+      <c r="F65">
+        <v>0.01342525806978909</v>
+      </c>
+      <c r="G65">
+        <v>-0.03130407261647514</v>
+      </c>
+      <c r="H65">
+        <v>0.02927133560054567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04468039322083819</v>
+        <v>-0.04091098730892008</v>
       </c>
       <c r="C66">
-        <v>0.05489634935092966</v>
+        <v>0.07330103892889285</v>
       </c>
       <c r="D66">
-        <v>-0.1117606388618245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1300752336577846</v>
+      </c>
+      <c r="E66">
+        <v>0.01269834404175575</v>
+      </c>
+      <c r="F66">
+        <v>-0.01147195731871441</v>
+      </c>
+      <c r="G66">
+        <v>-0.01572953291665908</v>
+      </c>
+      <c r="H66">
+        <v>-0.05518183419991683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04420286532886554</v>
+        <v>-0.03748834959251748</v>
       </c>
       <c r="C67">
-        <v>0.02447508822341072</v>
+        <v>0.02810836627136996</v>
       </c>
       <c r="D67">
-        <v>-0.01958379842201201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01709820336171583</v>
+      </c>
+      <c r="E67">
+        <v>0.01677600435105532</v>
+      </c>
+      <c r="F67">
+        <v>-0.0001908847816494998</v>
+      </c>
+      <c r="G67">
+        <v>-0.03546407521610391</v>
+      </c>
+      <c r="H67">
+        <v>-0.0354717819309951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1647320557702344</v>
+        <v>-0.1931807370703632</v>
       </c>
       <c r="C68">
-        <v>-0.2467651271885323</v>
+        <v>-0.2038181288059224</v>
       </c>
       <c r="D68">
-        <v>0.02202045724364149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0117978255636649</v>
+      </c>
+      <c r="E68">
+        <v>0.05474818432188086</v>
+      </c>
+      <c r="F68">
+        <v>0.02728007108641498</v>
+      </c>
+      <c r="G68">
+        <v>-0.008790123149210918</v>
+      </c>
+      <c r="H68">
+        <v>0.001758440557538975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08380472382736261</v>
+        <v>-0.07671659412341554</v>
       </c>
       <c r="C69">
-        <v>0.08345580787753951</v>
+        <v>0.09757001977263256</v>
       </c>
       <c r="D69">
-        <v>-0.05946165444212114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04576036089995908</v>
+      </c>
+      <c r="E69">
+        <v>0.02643195363707011</v>
+      </c>
+      <c r="F69">
+        <v>0.004281651031638395</v>
+      </c>
+      <c r="G69">
+        <v>0.03223116192335158</v>
+      </c>
+      <c r="H69">
+        <v>-0.0344930321999457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1416211629189511</v>
+        <v>-0.1787271915798868</v>
       </c>
       <c r="C71">
-        <v>-0.2430470294165855</v>
+        <v>-0.2142530518539822</v>
       </c>
       <c r="D71">
-        <v>-0.01613217496972258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03526609753611044</v>
+      </c>
+      <c r="E71">
+        <v>0.05491764277904865</v>
+      </c>
+      <c r="F71">
+        <v>0.0317093734266266</v>
+      </c>
+      <c r="G71">
+        <v>0.02294343555649872</v>
+      </c>
+      <c r="H71">
+        <v>-0.02665501327485956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09603098267238339</v>
+        <v>-0.09845414665172063</v>
       </c>
       <c r="C72">
-        <v>0.03691639532352783</v>
+        <v>0.06609919224219472</v>
       </c>
       <c r="D72">
-        <v>-0.09110659833320393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09602216635892788</v>
+      </c>
+      <c r="E72">
+        <v>-0.03422031131058196</v>
+      </c>
+      <c r="F72">
+        <v>0.03757319152821863</v>
+      </c>
+      <c r="G72">
+        <v>0.03420893367268645</v>
+      </c>
+      <c r="H72">
+        <v>-0.03894523834058152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.276505320928063</v>
+        <v>-0.2464023070647727</v>
       </c>
       <c r="C73">
-        <v>0.01134331703668243</v>
+        <v>0.07994064084123245</v>
       </c>
       <c r="D73">
-        <v>-0.2813334145472781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1775704240207927</v>
+      </c>
+      <c r="E73">
+        <v>-0.6660041346888469</v>
+      </c>
+      <c r="F73">
+        <v>0.02677880297854462</v>
+      </c>
+      <c r="G73">
+        <v>0.006470909139207818</v>
+      </c>
+      <c r="H73">
+        <v>0.1464700167549321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1084350543819196</v>
+        <v>-0.1001787887005548</v>
       </c>
       <c r="C74">
-        <v>0.07805843711414906</v>
+        <v>0.09143879762817905</v>
       </c>
       <c r="D74">
-        <v>-0.01611451686238832</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.003771466712076453</v>
+      </c>
+      <c r="E74">
+        <v>0.07953491080093754</v>
+      </c>
+      <c r="F74">
+        <v>0.05692318258622756</v>
+      </c>
+      <c r="G74">
+        <v>0.06113459933980411</v>
+      </c>
+      <c r="H74">
+        <v>0.03320467449153262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2465389484818861</v>
+        <v>-0.2303566728397339</v>
       </c>
       <c r="C75">
-        <v>0.1245679029523378</v>
+        <v>0.166294134475748</v>
       </c>
       <c r="D75">
-        <v>0.06872065447670155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09489492626420565</v>
+      </c>
+      <c r="E75">
+        <v>0.1032480525738582</v>
+      </c>
+      <c r="F75">
+        <v>0.004164628937757429</v>
+      </c>
+      <c r="G75">
+        <v>0.05670327827294505</v>
+      </c>
+      <c r="H75">
+        <v>0.1099483873790672</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1372103084162002</v>
+        <v>-0.1275256154825614</v>
       </c>
       <c r="C76">
-        <v>0.08763099244623053</v>
+        <v>0.1134698907531729</v>
       </c>
       <c r="D76">
-        <v>0.0009388518419880046</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01384542536236211</v>
+      </c>
+      <c r="E76">
+        <v>0.1160373878038856</v>
+      </c>
+      <c r="F76">
+        <v>0.02030357042271265</v>
+      </c>
+      <c r="G76">
+        <v>0.04869062701657838</v>
+      </c>
+      <c r="H76">
+        <v>-0.002600919313379681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06518285870078776</v>
+        <v>-0.06104713002757719</v>
       </c>
       <c r="C77">
-        <v>0.05688847704961099</v>
+        <v>0.06959993295115936</v>
       </c>
       <c r="D77">
-        <v>-0.04005498904965341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1268133706995569</v>
+      </c>
+      <c r="E77">
+        <v>0.2046333700584484</v>
+      </c>
+      <c r="F77">
+        <v>-0.2520185713182022</v>
+      </c>
+      <c r="G77">
+        <v>-0.1934894886952392</v>
+      </c>
+      <c r="H77">
+        <v>0.3092065848196478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04234792921033777</v>
+        <v>-0.04175692444810702</v>
       </c>
       <c r="C78">
-        <v>0.05376652690198344</v>
+        <v>0.06488942676300333</v>
       </c>
       <c r="D78">
-        <v>-0.1195777538834142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1305156436455148</v>
+      </c>
+      <c r="E78">
+        <v>0.01505912476523992</v>
+      </c>
+      <c r="F78">
+        <v>0.008230898329169055</v>
+      </c>
+      <c r="G78">
+        <v>0.0190091014195155</v>
+      </c>
+      <c r="H78">
+        <v>-0.02783037936926169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.007115634160054212</v>
+        <v>-0.04369767612759227</v>
       </c>
       <c r="C79">
-        <v>0.05897034041793901</v>
+        <v>0.08825831755978945</v>
       </c>
       <c r="D79">
-        <v>-0.01009607310984753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02317265595624408</v>
+      </c>
+      <c r="E79">
+        <v>0.1921693346892926</v>
+      </c>
+      <c r="F79">
+        <v>0.1221366519180398</v>
+      </c>
+      <c r="G79">
+        <v>0.7017858709978645</v>
+      </c>
+      <c r="H79">
+        <v>0.3889883416057124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03141935835605832</v>
+        <v>-0.02452897991779329</v>
       </c>
       <c r="C80">
-        <v>0.02789663132750734</v>
+        <v>0.04246224346490549</v>
       </c>
       <c r="D80">
-        <v>-0.02482729198398849</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03411399213880589</v>
+      </c>
+      <c r="E80">
+        <v>0.02162481480833426</v>
+      </c>
+      <c r="F80">
+        <v>-0.03305647850280136</v>
+      </c>
+      <c r="G80">
+        <v>-0.04977995898044089</v>
+      </c>
+      <c r="H80">
+        <v>-0.01921568115942821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1461936672481118</v>
+        <v>-0.1301698660938912</v>
       </c>
       <c r="C81">
-        <v>0.09846655490143391</v>
+        <v>0.1174272344758222</v>
       </c>
       <c r="D81">
-        <v>0.05017703642799111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06571091864289733</v>
+      </c>
+      <c r="E81">
+        <v>0.1180043264115797</v>
+      </c>
+      <c r="F81">
+        <v>0.0199385150287855</v>
+      </c>
+      <c r="G81">
+        <v>0.04668303595414929</v>
+      </c>
+      <c r="H81">
+        <v>0.01822806644209588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2999835985059774</v>
+        <v>-0.2533379946500133</v>
       </c>
       <c r="C82">
-        <v>0.264010909305701</v>
+        <v>0.2542886539775712</v>
       </c>
       <c r="D82">
-        <v>0.2230420009544163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2226243050249147</v>
+      </c>
+      <c r="E82">
+        <v>-0.01615731125507157</v>
+      </c>
+      <c r="F82">
+        <v>0.04629252980143849</v>
+      </c>
+      <c r="G82">
+        <v>0.1191493530371228</v>
+      </c>
+      <c r="H82">
+        <v>-0.4704725755442707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02838747800225806</v>
+        <v>-0.02180090322288443</v>
       </c>
       <c r="C83">
-        <v>0.04589670437008907</v>
+        <v>0.05166089388006035</v>
       </c>
       <c r="D83">
-        <v>-0.04591589293614687</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04982448773341744</v>
+      </c>
+      <c r="E83">
+        <v>0.01233747872000766</v>
+      </c>
+      <c r="F83">
+        <v>-0.02339793339732062</v>
+      </c>
+      <c r="G83">
+        <v>-0.01199125464532934</v>
+      </c>
+      <c r="H83">
+        <v>-0.02547039945850647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002969196040276413</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004998094945296</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01692266725028118</v>
+      </c>
+      <c r="E84">
+        <v>0.01558456423236675</v>
+      </c>
+      <c r="F84">
+        <v>0.007986606738294681</v>
+      </c>
+      <c r="G84">
+        <v>-0.007877211543084912</v>
+      </c>
+      <c r="H84">
+        <v>-0.001654329401685257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.181020447831044</v>
+        <v>-0.1599909735876726</v>
       </c>
       <c r="C85">
-        <v>0.1003494328001996</v>
+        <v>0.1344145942481144</v>
       </c>
       <c r="D85">
-        <v>0.03553390685683983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06643221528305034</v>
+      </c>
+      <c r="E85">
+        <v>0.05078540010348371</v>
+      </c>
+      <c r="F85">
+        <v>0.03541870095929234</v>
+      </c>
+      <c r="G85">
+        <v>0.08976934950636405</v>
+      </c>
+      <c r="H85">
+        <v>0.09344774141243238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01768026376950859</v>
+        <v>-0.0193184255171051</v>
       </c>
       <c r="C86">
-        <v>0.01984873075738449</v>
+        <v>0.02220289124070036</v>
       </c>
       <c r="D86">
-        <v>-0.1414681086653802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1299673049338669</v>
+      </c>
+      <c r="E86">
+        <v>0.01127191159718211</v>
+      </c>
+      <c r="F86">
+        <v>-0.01634536695803914</v>
+      </c>
+      <c r="G86">
+        <v>0.001867811518313534</v>
+      </c>
+      <c r="H86">
+        <v>-0.06780534536975312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02841206872831207</v>
+        <v>-0.03312722300926173</v>
       </c>
       <c r="C87">
-        <v>0.00351182555432519</v>
+        <v>0.02447466609236233</v>
       </c>
       <c r="D87">
-        <v>-0.09264062019858944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1318962001250355</v>
+      </c>
+      <c r="E87">
+        <v>0.08248203616198919</v>
+      </c>
+      <c r="F87">
+        <v>-0.01225287385332262</v>
+      </c>
+      <c r="G87">
+        <v>-0.01647202742769486</v>
+      </c>
+      <c r="H87">
+        <v>-0.03040461067567862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07943090595194799</v>
+        <v>-0.07018233681066069</v>
       </c>
       <c r="C88">
-        <v>0.04495488601781162</v>
+        <v>0.05858676903962646</v>
       </c>
       <c r="D88">
-        <v>-0.03134115692718863</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01542018359606383</v>
+      </c>
+      <c r="E88">
+        <v>0.01895266446419997</v>
+      </c>
+      <c r="F88">
+        <v>0.005344042643581669</v>
+      </c>
+      <c r="G88">
+        <v>-0.000129671499024395</v>
+      </c>
+      <c r="H88">
+        <v>-0.03528335897021005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2041957019400159</v>
+        <v>-0.2730531733519521</v>
       </c>
       <c r="C89">
-        <v>-0.3771434260243259</v>
+        <v>-0.3570212033784045</v>
       </c>
       <c r="D89">
-        <v>0.04121511865997297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008669846449743642</v>
+      </c>
+      <c r="E89">
+        <v>0.04745766745605457</v>
+      </c>
+      <c r="F89">
+        <v>-0.04653199799011742</v>
+      </c>
+      <c r="G89">
+        <v>0.04429844925584735</v>
+      </c>
+      <c r="H89">
+        <v>-0.068743731276817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2007964788157832</v>
+        <v>-0.2383361558642425</v>
       </c>
       <c r="C90">
-        <v>-0.2966309335766879</v>
+        <v>-0.2577840142247628</v>
       </c>
       <c r="D90">
-        <v>0.03353487390995873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01327956966947267</v>
+      </c>
+      <c r="E90">
+        <v>0.04550165512086798</v>
+      </c>
+      <c r="F90">
+        <v>0.01208228246463709</v>
+      </c>
+      <c r="G90">
+        <v>-0.04803535350415378</v>
+      </c>
+      <c r="H90">
+        <v>-0.04445571174962343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1798214355460482</v>
+        <v>-0.1621427294773687</v>
       </c>
       <c r="C91">
-        <v>0.1417907231429256</v>
+        <v>0.157441262430237</v>
       </c>
       <c r="D91">
-        <v>0.06313194430431812</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08542221019663437</v>
+      </c>
+      <c r="E91">
+        <v>0.1077043585019255</v>
+      </c>
+      <c r="F91">
+        <v>0.02569082737814211</v>
+      </c>
+      <c r="G91">
+        <v>0.09148654768461366</v>
+      </c>
+      <c r="H91">
+        <v>0.0912150887796729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1720707939636102</v>
+        <v>-0.2175090523859357</v>
       </c>
       <c r="C92">
-        <v>-0.2858995228645803</v>
+        <v>-0.2726732439597714</v>
       </c>
       <c r="D92">
-        <v>-0.004100546109366037</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02759610497545564</v>
+      </c>
+      <c r="E92">
+        <v>0.09089357440696683</v>
+      </c>
+      <c r="F92">
+        <v>-0.01764839465184427</v>
+      </c>
+      <c r="G92">
+        <v>-0.0114345497744489</v>
+      </c>
+      <c r="H92">
+        <v>-0.04152009747984902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2333864733361005</v>
+        <v>-0.2652167996855885</v>
       </c>
       <c r="C93">
-        <v>-0.3155208419413385</v>
+        <v>-0.2717238817832503</v>
       </c>
       <c r="D93">
-        <v>0.00602101316882186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0038572884139941</v>
+      </c>
+      <c r="E93">
+        <v>0.01855201485208039</v>
+      </c>
+      <c r="F93">
+        <v>0.02368785823944597</v>
+      </c>
+      <c r="G93">
+        <v>3.782611624828034e-05</v>
+      </c>
+      <c r="H93">
+        <v>0.005339304110617154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3933145658772086</v>
+        <v>-0.3425929322709224</v>
       </c>
       <c r="C94">
-        <v>0.2262740760562277</v>
+        <v>0.2637306993962117</v>
       </c>
       <c r="D94">
-        <v>0.462633954708246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4325511925017797</v>
+      </c>
+      <c r="E94">
+        <v>0.09060798704356997</v>
+      </c>
+      <c r="F94">
+        <v>-0.01809339829572746</v>
+      </c>
+      <c r="G94">
+        <v>-0.5082983864896247</v>
+      </c>
+      <c r="H94">
+        <v>0.1610956089106505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07590330634782015</v>
+        <v>-0.06714648377850918</v>
       </c>
       <c r="C95">
-        <v>0.06808559920483244</v>
+        <v>0.06464858881613919</v>
       </c>
       <c r="D95">
-        <v>-0.1003290465763289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07727507666661813</v>
+      </c>
+      <c r="E95">
+        <v>-0.007717477333598971</v>
+      </c>
+      <c r="F95">
+        <v>-0.9180506271449717</v>
+      </c>
+      <c r="G95">
+        <v>0.1233667995044121</v>
+      </c>
+      <c r="H95">
+        <v>0.0228394820308432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1759922092833459</v>
+        <v>-0.1638098669200364</v>
       </c>
       <c r="C98">
-        <v>0.02354205662254712</v>
+        <v>0.06236732241432971</v>
       </c>
       <c r="D98">
-        <v>-0.1622623372092873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1331713339848394</v>
+      </c>
+      <c r="E98">
+        <v>-0.3181659448202454</v>
+      </c>
+      <c r="F98">
+        <v>0.0529045087505326</v>
+      </c>
+      <c r="G98">
+        <v>0.04912276193971336</v>
+      </c>
+      <c r="H98">
+        <v>0.04857778047254255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00536745983618714</v>
+        <v>-0.006266562063390416</v>
       </c>
       <c r="C101">
-        <v>0.01909480445799277</v>
+        <v>0.02203595433323277</v>
       </c>
       <c r="D101">
-        <v>-0.06512888144725523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08009346199839276</v>
+      </c>
+      <c r="E101">
+        <v>0.0342597770422662</v>
+      </c>
+      <c r="F101">
+        <v>0.003959544013275131</v>
+      </c>
+      <c r="G101">
+        <v>0.00774255950423882</v>
+      </c>
+      <c r="H101">
+        <v>-0.106679095832258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1235941608813056</v>
+        <v>-0.1086218179588789</v>
       </c>
       <c r="C102">
-        <v>0.1156286046752768</v>
+        <v>0.118991403204017</v>
       </c>
       <c r="D102">
-        <v>0.03812572603416643</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05520748374779909</v>
+      </c>
+      <c r="E102">
+        <v>0.03342701649538199</v>
+      </c>
+      <c r="F102">
+        <v>-0.02234133958114581</v>
+      </c>
+      <c r="G102">
+        <v>0.03773816061644435</v>
+      </c>
+      <c r="H102">
+        <v>-0.03218203461437692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
